--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-17T13:53:20+00:00</t>
+    <t>2025-06-18T12:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9000,7 +9000,7 @@
         <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>77</v>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T12:49:42+00:00</t>
+    <t>2025-06-19T12:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:31:56+00:00</t>
+    <t>2025-06-19T12:56:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T12:56:09+00:00</t>
+    <t>2025-06-19T13:39:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
+++ b/feature/ModelisationAppointment/ig/StructureDefinition-sas-appointment-dashboard.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T13:39:18+00:00</t>
+    <t>2025-06-20T10:31:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
